--- a/medicine/Enfance/Tove_Nilsen/Tove_Nilsen.xlsx
+++ b/medicine/Enfance/Tove_Nilsen/Tove_Nilsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tove Nilsen, née le 25 octobre 1952, est une romancière, une auteure de littérature d'enfance et de jeunesse et une critique littéraire norvégienne.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1952, elle grandit à Bøler, un quartier résidentiel en banlieue d’Oslo et effectue des études de littérature[1].
-Elle devient ensuite journaliste et critique littéraire[1]. Elle se lance dans l’écriture de romans en 1974 avec son œuvre Aldri la dem kle deg forsvarsløst naken [ce qui peut se traduire par Ne les laisse jamais te déshabiller sans te défendre]. Ce roman est consacrés aux thèmes de l’oppression des femmes dans le domaine de leur sexualité et au droit à l’avortement[1] : l’IVG a été autorisée en 1978 en Norvège.
-L’année suivante, son deuxième roman, Helle og Vera [Helle et Véra], est centrée sur une relation lesbienne[2]. Les parutions de ses romans pour adultes s’échelonnent ensuite régulièrement, avec quelques œuvres autres qui s’intercalent, notamment des livres pour les enfants.
-Son roman sur l'adolescence dans une ville-dortoir, Skyskraperengler [Les Anges des gratte-ciel], paru en 1982, devient un best-seller[3]. C’est le premier volet d’une trilogie, dont les deux autres volets sont sortis bien plus tard, en 1996, Skyskrapersommer et en 1997, G for Georg[1]. Elle s’inspire d’éléments autobiographiques, mais se focalise sur la capacité de l’imagination et de la poésie à dépasser le vécu et la réalité[1]. Den svarte gryte [La Marmite noire], paru en 1984, s’intéresse à la vie des immigrés à Oslo, des thèmes de critiques sociales revenant régulièrement dans ses écrits[1]. Un autre de ses ouvrages, Lystreise [qui a été traduit en français en Gestations], paru en 1995, s’intéresse à la création féminine, avec le personnage d’une narratrice qui est enceinte à la fois d’un enfant et d’un livre, et qui voit sa volonté d’aboutir dans son travail d’écriture se renforcer à mesure que son ventre grossit[1]. Kretadøgn [Journées de Crète], publié en 2003, expose le comportement de vacancières norvégiennes vis-à-vis des habitants de Crète[1]
-Elle a reçu le prix littéraire de la société Riksmål en 1993. Son roman Øyets sult, a été nommé pour le prix de littérature du Conseil nordique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1952, elle grandit à Bøler, un quartier résidentiel en banlieue d’Oslo et effectue des études de littérature.
+Elle devient ensuite journaliste et critique littéraire. Elle se lance dans l’écriture de romans en 1974 avec son œuvre Aldri la dem kle deg forsvarsløst naken [ce qui peut se traduire par Ne les laisse jamais te déshabiller sans te défendre]. Ce roman est consacrés aux thèmes de l’oppression des femmes dans le domaine de leur sexualité et au droit à l’avortement : l’IVG a été autorisée en 1978 en Norvège.
+L’année suivante, son deuxième roman, Helle og Vera [Helle et Véra], est centrée sur une relation lesbienne. Les parutions de ses romans pour adultes s’échelonnent ensuite régulièrement, avec quelques œuvres autres qui s’intercalent, notamment des livres pour les enfants.
+Son roman sur l'adolescence dans une ville-dortoir, Skyskraperengler [Les Anges des gratte-ciel], paru en 1982, devient un best-seller. C’est le premier volet d’une trilogie, dont les deux autres volets sont sortis bien plus tard, en 1996, Skyskrapersommer et en 1997, G for Georg. Elle s’inspire d’éléments autobiographiques, mais se focalise sur la capacité de l’imagination et de la poésie à dépasser le vécu et la réalité. Den svarte gryte [La Marmite noire], paru en 1984, s’intéresse à la vie des immigrés à Oslo, des thèmes de critiques sociales revenant régulièrement dans ses écrits. Un autre de ses ouvrages, Lystreise [qui a été traduit en français en Gestations], paru en 1995, s’intéresse à la création féminine, avec le personnage d’une narratrice qui est enceinte à la fois d’un enfant et d’un livre, et qui voit sa volonté d’aboutir dans son travail d’écriture se renforcer à mesure que son ventre grossit. Kretadøgn [Journées de Crète], publié en 2003, expose le comportement de vacancières norvégiennes vis-à-vis des habitants de Crète
+Elle a reçu le prix littéraire de la société Riksmål en 1993. Son roman Øyets sult, a été nommé pour le prix de littérature du Conseil nordique.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aldri la dem kle deg forsvarsløst naken, roman (1974)
@@ -574,7 +590,7 @@
 Sommer 2005, roman (2006)
 Vingetyven, roman (2008)
 Nede i himmelen, roman (2010)
-Konge i snø, roman (2014)[5]
+Konge i snø, roman (2014)
 Himmelske tilstander, roman (2017)
 </t>
         </is>
